--- a/biology/Botanique/Nevsky_(pomme_de_terre)/Nevsky_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Nevsky_(pomme_de_terre)/Nevsky_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Nevsky[1] est une variété de pomme de terre  russe sélectionnée en 1982 en Union soviétique.
+La Nevsky est une variété de pomme de terre  russe sélectionnée en 1982 en Union soviétique.
 C'est une pomme de terre de forme ovale, à la peau lisse, blanc-jaunâtre, aux yeux superficiels et à la chair blanche, à teneur relativement faible en amidon (pomme de terre « à chair ferme »).
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante de maturité moyenne, à un port relativement dressé. Les fleurs sont blanches[2].
-C'est la variété de pomme de terre la plus cultivée en Russie (41 % des emblavements en 2007)[3]. Elle est également très cultivée dans les pays d'Asie centrale (Kazakhstan, Kirghizistan, Tadjikistan).
-Cette variété est issue d'un croisement entre deux variétés russes : Veselovsky 2-4 (1962) et Kandidat (1965). Elle incorpore dans son pedigree notamment des gènes de Katahdin, variété créée en 1932 aux États-Unis[4].
-Une variété dérivée par modification génétique, appelée 'Nevsky+' a été sélectionnée dans les années 2000. Créée par le centre de bio-ingénierie de l'Académie russe des sciences, elle incorpore un gène cry3A de Bacillus thuringiensis subsp. Tenebrionis lui conférant une résistance au doryphore[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante de maturité moyenne, à un port relativement dressé. Les fleurs sont blanches.
+C'est la variété de pomme de terre la plus cultivée en Russie (41 % des emblavements en 2007). Elle est également très cultivée dans les pays d'Asie centrale (Kazakhstan, Kirghizistan, Tadjikistan).
+Cette variété est issue d'un croisement entre deux variétés russes : Veselovsky 2-4 (1962) et Kandidat (1965). Elle incorpore dans son pedigree notamment des gènes de Katahdin, variété créée en 1932 aux États-Unis.
+Une variété dérivée par modification génétique, appelée 'Nevsky+' a été sélectionnée dans les années 2000. Créée par le centre de bio-ingénierie de l'Académie russe des sciences, elle incorpore un gène cry3A de Bacillus thuringiensis subsp. Tenebrionis lui conférant une résistance au doryphore.
 </t>
         </is>
       </c>
